--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp4</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp4</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H2">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I2">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J2">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N2">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O2">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P2">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q2">
-        <v>42.16633863861699</v>
+        <v>62.68812230370175</v>
       </c>
       <c r="R2">
-        <v>168.665354554468</v>
+        <v>250.752489214807</v>
       </c>
       <c r="S2">
-        <v>0.02599198950351709</v>
+        <v>0.05019155104504269</v>
       </c>
       <c r="T2">
-        <v>0.01734508102864251</v>
+        <v>0.03421952235831552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H3">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I3">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J3">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P3">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q3">
-        <v>234.7350467230338</v>
+        <v>223.5869655036482</v>
       </c>
       <c r="R3">
-        <v>1408.410280338203</v>
+        <v>1341.521793021889</v>
       </c>
       <c r="S3">
-        <v>0.1446943478498991</v>
+        <v>0.1790159950511053</v>
       </c>
       <c r="T3">
-        <v>0.1448370383981274</v>
+        <v>0.1830738954346112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H4">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I4">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J4">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N4">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O4">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P4">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q4">
-        <v>1.392269047880333</v>
+        <v>14.71838678559684</v>
       </c>
       <c r="R4">
-        <v>8.353614287281999</v>
+        <v>88.31032071358101</v>
       </c>
       <c r="S4">
-        <v>0.0008582163793902566</v>
+        <v>0.01178434820668321</v>
       </c>
       <c r="T4">
-        <v>0.0008590627107604404</v>
+        <v>0.01205147356100485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H5">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I5">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J5">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N5">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O5">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P5">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q5">
-        <v>253.99943595645</v>
+        <v>232.5897875921391</v>
       </c>
       <c r="R5">
-        <v>1015.9977438258</v>
+        <v>930.3591503685562</v>
       </c>
       <c r="S5">
-        <v>0.156569218159081</v>
+        <v>0.1862241484906803</v>
       </c>
       <c r="T5">
-        <v>0.1044824127523209</v>
+        <v>0.1269636279463912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H6">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I6">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J6">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N6">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O6">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P6">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q6">
-        <v>45.70052895956483</v>
+        <v>129.4319759512387</v>
       </c>
       <c r="R6">
-        <v>274.203173757389</v>
+        <v>776.5918557074322</v>
       </c>
       <c r="S6">
-        <v>0.02817051959864324</v>
+        <v>0.1036303431827902</v>
       </c>
       <c r="T6">
-        <v>0.02819829999881185</v>
+        <v>0.105979416008513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H7">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I7">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J7">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N7">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O7">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P7">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q7">
-        <v>10.40166443825533</v>
+        <v>9.982839471346335</v>
       </c>
       <c r="R7">
-        <v>62.40998662953199</v>
+        <v>59.89703682807801</v>
       </c>
       <c r="S7">
-        <v>0.006411748366756158</v>
+        <v>0.00799280913971416</v>
       </c>
       <c r="T7">
-        <v>0.006418071322028075</v>
+        <v>0.00817398861065516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>14.961619</v>
       </c>
       <c r="I8">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J8">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N8">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O8">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P8">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q8">
-        <v>21.66668850367533</v>
+        <v>33.81764518797016</v>
       </c>
       <c r="R8">
-        <v>130.000131022052</v>
+        <v>202.905871127821</v>
       </c>
       <c r="S8">
-        <v>0.01335568508781427</v>
+        <v>0.02707626265230977</v>
       </c>
       <c r="T8">
-        <v>0.01336885581670219</v>
+        <v>0.02769002220250721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>14.961619</v>
       </c>
       <c r="I9">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J9">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P9">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q9">
         <v>120.6159060152741</v>
@@ -1013,10 +1013,10 @@
         <v>1085.543154137467</v>
       </c>
       <c r="S9">
-        <v>0.07434952771154414</v>
+        <v>0.09657171376549938</v>
       </c>
       <c r="T9">
-        <v>0.1116342714147738</v>
+        <v>0.1481411743916992</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>14.961619</v>
       </c>
       <c r="I10">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J10">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N10">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O10">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P10">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q10">
-        <v>0.7154014492997779</v>
+        <v>7.939959975882556</v>
       </c>
       <c r="R10">
-        <v>6.438613043698001</v>
+        <v>71.459639782943</v>
       </c>
       <c r="S10">
-        <v>0.0004409846233120947</v>
+        <v>0.006357167702270971</v>
       </c>
       <c r="T10">
-        <v>0.0006621292514400258</v>
+        <v>0.009751906148276809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>14.961619</v>
       </c>
       <c r="I11">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J11">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N11">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O11">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P11">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q11">
-        <v>130.5146910227</v>
+        <v>125.4725555988114</v>
       </c>
       <c r="R11">
-        <v>783.0881461362001</v>
+        <v>752.8353335928681</v>
       </c>
       <c r="S11">
-        <v>0.08045129334539868</v>
+        <v>0.1004602139553607</v>
       </c>
       <c r="T11">
-        <v>0.08053063050903853</v>
+        <v>0.1027374268972554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>14.961619</v>
       </c>
       <c r="I12">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J12">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N12">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O12">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P12">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q12">
-        <v>23.48269158264678</v>
+        <v>69.82318943118845</v>
       </c>
       <c r="R12">
-        <v>211.344224243821</v>
+        <v>628.4087048806961</v>
       </c>
       <c r="S12">
-        <v>0.01447509773996596</v>
+        <v>0.05590427736031003</v>
       </c>
       <c r="T12">
-        <v>0.0217340585689805</v>
+        <v>0.08575725726257423</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>14.961619</v>
       </c>
       <c r="I13">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J13">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N13">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O13">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P13">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q13">
-        <v>5.344775728216445</v>
+        <v>5.385328365314889</v>
       </c>
       <c r="R13">
-        <v>48.10298155394801</v>
+        <v>48.467955287834</v>
       </c>
       <c r="S13">
-        <v>0.003294603209851069</v>
+        <v>0.00431178943648241</v>
       </c>
       <c r="T13">
-        <v>0.004946778281624418</v>
+        <v>0.006614292383805912</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H14">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I14">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J14">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N14">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O14">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P14">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q14">
-        <v>27.489932374768</v>
+        <v>19.833435134827</v>
       </c>
       <c r="R14">
-        <v>109.959729499072</v>
+        <v>79.333740539308</v>
       </c>
       <c r="S14">
-        <v>0.01694522353152547</v>
+        <v>0.0158797366293013</v>
       </c>
       <c r="T14">
-        <v>0.01130795605942354</v>
+        <v>0.01082646364410784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H15">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I15">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J15">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>72.555193</v>
       </c>
       <c r="O15">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P15">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q15">
-        <v>153.0332195950853</v>
+        <v>70.73903977895267</v>
       </c>
       <c r="R15">
-        <v>918.199317570512</v>
+        <v>424.434238673716</v>
       </c>
       <c r="S15">
-        <v>0.09433206595182213</v>
+        <v>0.05663755741066358</v>
       </c>
       <c r="T15">
-        <v>0.09442509166019419</v>
+        <v>0.05792140674419357</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H16">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I16">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J16">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N16">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O16">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P16">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q16">
-        <v>0.9076761988213334</v>
+        <v>4.656642420827334</v>
       </c>
       <c r="R16">
-        <v>5.446057192928</v>
+        <v>27.939854524964</v>
       </c>
       <c r="S16">
-        <v>0.0005595057810105893</v>
+        <v>0.003728363478988185</v>
       </c>
       <c r="T16">
-        <v>0.0005600575384760025</v>
+        <v>0.003812877310207101</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H17">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I17">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J17">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N17">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O17">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P17">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q17">
-        <v>165.5924498808</v>
+        <v>73.58737661471601</v>
       </c>
       <c r="R17">
-        <v>662.3697995232</v>
+        <v>294.349506458864</v>
       </c>
       <c r="S17">
-        <v>0.1020737715942368</v>
+        <v>0.05891809219830787</v>
       </c>
       <c r="T17">
-        <v>0.06811628786482908</v>
+        <v>0.0401690908392125</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H18">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I18">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J18">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N18">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O18">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P18">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q18">
-        <v>29.79401321410933</v>
+        <v>40.95003335663467</v>
       </c>
       <c r="R18">
-        <v>178.764079284656</v>
+        <v>245.700200139808</v>
       </c>
       <c r="S18">
-        <v>0.01836549493580074</v>
+        <v>0.03278684404612262</v>
       </c>
       <c r="T18">
-        <v>0.01838360609618684</v>
+        <v>0.03353004996462574</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H19">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I19">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J19">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N19">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O19">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P19">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q19">
-        <v>6.781263472821333</v>
+        <v>3.158397346105333</v>
       </c>
       <c r="R19">
-        <v>40.687580836928</v>
+        <v>18.950384076632</v>
       </c>
       <c r="S19">
-        <v>0.004180076684313632</v>
+        <v>0.002528786248367376</v>
       </c>
       <c r="T19">
-        <v>0.00418419887320756</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.739525</v>
-      </c>
-      <c r="H20">
-        <v>17.218575</v>
-      </c>
-      <c r="I20">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J20">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>4.344454</v>
-      </c>
-      <c r="N20">
-        <v>8.688908</v>
-      </c>
-      <c r="O20">
-        <v>0.07166328453363975</v>
-      </c>
-      <c r="P20">
-        <v>0.05740743684517154</v>
-      </c>
-      <c r="Q20">
-        <v>24.93510234435</v>
-      </c>
-      <c r="R20">
-        <v>149.6106140661</v>
-      </c>
-      <c r="S20">
-        <v>0.01537038641078292</v>
-      </c>
-      <c r="T20">
-        <v>0.01538554394040329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.739525</v>
-      </c>
-      <c r="H21">
-        <v>17.218575</v>
-      </c>
-      <c r="I21">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J21">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>24.18506433333333</v>
-      </c>
-      <c r="N21">
-        <v>72.555193</v>
-      </c>
-      <c r="O21">
-        <v>0.3989410744788757</v>
-      </c>
-      <c r="P21">
-        <v>0.4793706711978918</v>
-      </c>
-      <c r="Q21">
-        <v>138.810781367775</v>
-      </c>
-      <c r="R21">
-        <v>1249.297032309975</v>
-      </c>
-      <c r="S21">
-        <v>0.08556513296561027</v>
-      </c>
-      <c r="T21">
-        <v>0.1284742697247964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>5.739525</v>
-      </c>
-      <c r="H22">
-        <v>17.218575</v>
-      </c>
-      <c r="I22">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J22">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1434473333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.430342</v>
-      </c>
-      <c r="O22">
-        <v>0.002366213812888463</v>
-      </c>
-      <c r="P22">
-        <v>0.002843260762667162</v>
-      </c>
-      <c r="Q22">
-        <v>0.8233195558499999</v>
-      </c>
-      <c r="R22">
-        <v>7.409876002649999</v>
-      </c>
-      <c r="S22">
-        <v>0.0005075070291755224</v>
-      </c>
-      <c r="T22">
-        <v>0.0007620112619906935</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>5.739525</v>
-      </c>
-      <c r="H23">
-        <v>17.218575</v>
-      </c>
-      <c r="I23">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J23">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>26.1699</v>
-      </c>
-      <c r="N23">
-        <v>52.3398</v>
-      </c>
-      <c r="O23">
-        <v>0.4316816313205064</v>
-      </c>
-      <c r="P23">
-        <v>0.3458079845003433</v>
-      </c>
-      <c r="Q23">
-        <v>150.2027952975</v>
-      </c>
-      <c r="R23">
-        <v>901.2167717849999</v>
-      </c>
-      <c r="S23">
-        <v>0.09258734822178989</v>
-      </c>
-      <c r="T23">
-        <v>0.09267865337415473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>5.739525</v>
-      </c>
-      <c r="H24">
-        <v>17.218575</v>
-      </c>
-      <c r="I24">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J24">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>4.708586333333333</v>
-      </c>
-      <c r="N24">
-        <v>14.125759</v>
-      </c>
-      <c r="O24">
-        <v>0.07766977441972552</v>
-      </c>
-      <c r="P24">
-        <v>0.09332859982895587</v>
-      </c>
-      <c r="Q24">
-        <v>27.02504897482499</v>
-      </c>
-      <c r="R24">
-        <v>243.2254407734249</v>
-      </c>
-      <c r="S24">
-        <v>0.01665866214531558</v>
-      </c>
-      <c r="T24">
-        <v>0.02501263516497668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.739525</v>
-      </c>
-      <c r="H25">
-        <v>17.218575</v>
-      </c>
-      <c r="I25">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J25">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.071697333333333</v>
-      </c>
-      <c r="N25">
-        <v>3.215092</v>
-      </c>
-      <c r="O25">
-        <v>0.01767802143436428</v>
-      </c>
-      <c r="P25">
-        <v>0.0212420468649704</v>
-      </c>
-      <c r="Q25">
-        <v>6.151033637099999</v>
-      </c>
-      <c r="R25">
-        <v>55.35930273389999</v>
-      </c>
-      <c r="S25">
-        <v>0.00379159317344342</v>
-      </c>
-      <c r="T25">
-        <v>0.005692998388110346</v>
+        <v>0.002586108292043557</v>
       </c>
     </row>
   </sheetData>
